--- a/results/mela_masbin_results.xlsx
+++ b/results/mela_masbin_results.xlsx
@@ -22,552 +22,963 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="319">
   <si>
     <t xml:space="preserve"> contrast</t>
   </si>
   <si>
-    <t xml:space="preserve">estimate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    df</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> t.ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.lwma - mid.lwma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.lwma - late.lwma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.lwma - early.sswma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;.0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.lwma - mid.sswma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.lwma - late.sswma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.lwma - early.cbma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.lwma - mid.cbma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.lwma - late.cbma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.lwma - early.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.lwma - mid.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.lwma - late.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.lwma - late.lwma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.lwma - early.sswma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.lwma - mid.sswma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.lwma - late.sswma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.lwma - early.cbma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.lwma - mid.cbma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.lwma - late.cbma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.lwma - early.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.lwma - mid.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.lwma - late.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.lwma - early.sswma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.lwma - mid.sswma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.lwma - late.sswma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.lwma - early.cbma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.lwma - mid.cbma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.lwma - late.cbma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.lwma - early.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.lwma - mid.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.lwma - late.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.sswma - mid.sswma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.sswma - late.sswma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.sswma - early.cbma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.sswma - mid.cbma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.sswma - late.cbma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.sswma - early.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.sswma - mid.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.sswma - late.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.sswma - late.sswma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.sswma - early.cbma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.sswma - mid.cbma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.sswma - late.cbma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.sswma - early.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.sswma - mid.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.sswma - late.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.sswma - early.cbma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.sswma - mid.cbma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.sswma - late.cbma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.sswma - early.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.sswma - mid.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.sswma - late.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.cbma - mid.cbma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.cbma - late.cbma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.cbma - early.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.cbma - mid.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.cbma - late.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.cbma - late.cbma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.cbma - early.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.cbma - mid.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.cbma - late.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.cbma - early.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.cbma - mid.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.cbma - late.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.kiowa - mid.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.kiowa - late.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.kiowa - late.kiowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   df</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> p.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.1.0 - mid.1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.1.0 - late.1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.1.0 - early.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;.0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.1.0 - mid.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.1.0 - late.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.1.0 - early.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.1.0 - mid.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.1.0 - late.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.1.0 - early.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.1.0 - mid.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.1.0 - late.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.1.0 - early.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.1.0 - mid.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.1.0 - late.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.1.0 - late.1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.1.0 - early.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.1.0 - mid.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.1.0 - late.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.1.0 - early.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.1.0 - mid.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.1.0 - late.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.1.0 - early.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.1.0 - mid.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.1.0 - late.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.1.0 - early.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.1.0 - mid.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.1.0 - late.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.1.0 - early.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.1.0 - mid.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.1.0 - late.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.1.0 - early.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.1.0 - mid.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.1.0 - late.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.1.0 - early.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.1.0 - mid.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.1.0 - late.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.1.0 - early.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.1.0 - mid.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.1.0 - late.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.2.0 - mid.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.2.0 - late.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.2.0 - early.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.2.0 - mid.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.2.0 - late.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.2.0 - early.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.2.0 - mid.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.2.0 - late.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.2.0 - early.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.2.0 - mid.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.2.0 - late.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.2.0 - late.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.2.0 - early.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.2.0 - mid.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.2.0 - late.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.2.0 - early.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.2.0 - mid.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.2.0 - late.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.2.0 - early.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.2.0 - mid.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.2.0 - late.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.2.0 - early.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.2.0 - mid.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.2.0 - late.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.2.0 - early.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.2.0 - mid.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.2.0 - late.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.2.0 - early.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.2.0 - mid.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.2.0 - late.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.3.0 - mid.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.3.0 - late.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.3.0 - early.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.3.0 - mid.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.3.0 - late.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.3.0 - early.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.3.0 - mid.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.3.0 - late.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.3.0 - late.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.3.0 - early.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.3.0 - mid.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.3.0 - late.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.3.0 - early.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.3.0 - mid.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.3.0 - late.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.3.0 - early.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.3.0 - mid.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.3.0 - late.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.3.0 - early.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.3.0 - mid.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.3.0 - late.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.1.1 - mid.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.1.1 - late.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.1.1 - early.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.1.1 - mid.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.1.1 - late.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.1.1 - late.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.1.1 - early.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.1.1 - mid.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.1.1 - late.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.1.1 - early.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.1.1 - mid.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> late.1.1 - late.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.2.1 - mid.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> early.2.1 - late.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mid.2.1 - late.2.1</t>
+    <t xml:space="preserve">         diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         lwr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         upr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     p adj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:lwma-0:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:lwma-0:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:lwma-0:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:sswma-0:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:sswma-0:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:sswma-0:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:sswma-0:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:cbma-0:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:cbma-0:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:cbma-0:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:cbma-0:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:kiowa-0:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:kiowa-0:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:kiowa-0:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:kiowa-0:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:lwma-1:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:lwma-1:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:sswma-1:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:sswma-1:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:sswma-1:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:sswma-1:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:cbma-1:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:cbma-1:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:cbma-1:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:cbma-1:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:kiowa-1:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:kiowa-1:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:kiowa-1:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:kiowa-1:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:lwma-2:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:sswma-2:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:sswma-2:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:sswma-2:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:sswma-2:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:cbma-2:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:cbma-2:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:cbma-2:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:cbma-2:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:kiowa-2:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:kiowa-2:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:kiowa-2:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:kiowa-2:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:sswma-3:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:sswma-3:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:sswma-3:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:sswma-3:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:cbma-3:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:cbma-3:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:cbma-3:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:cbma-3:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:kiowa-3:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:kiowa-3:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:kiowa-3:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:kiowa-3:lwma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:sswma-0:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:sswma-0:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:sswma-0:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:cbma-0:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:cbma-0:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:cbma-0:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:cbma-0:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:kiowa-0:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:kiowa-0:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:kiowa-0:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:kiowa-0:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:sswma-1:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:sswma-1:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:cbma-1:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:cbma-1:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:cbma-1:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:cbma-1:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:kiowa-1:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:kiowa-1:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:kiowa-1:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:kiowa-1:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:sswma-2:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:cbma-2:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:cbma-2:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:cbma-2:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:cbma-2:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:kiowa-2:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:kiowa-2:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:kiowa-2:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:kiowa-2:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:cbma-3:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:cbma-3:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:cbma-3:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:cbma-3:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:kiowa-3:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:kiowa-3:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:kiowa-3:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:kiowa-3:sswma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:cbma-0:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:cbma-0:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:cbma-0:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:kiowa-0:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:kiowa-0:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:kiowa-0:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:kiowa-0:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:cbma-1:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:cbma-1:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:kiowa-1:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:kiowa-1:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:kiowa-1:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:kiowa-1:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:cbma-2:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:kiowa-2:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:kiowa-2:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:kiowa-2:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:kiowa-2:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:kiowa-3:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:kiowa-3:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:kiowa-3:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:kiowa-3:cbma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:kiowa-0:kiowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:kiowa-0:kiowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:kiowa-0:kiowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:kiowa-1:kiowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:kiowa-1:kiowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:kiowa-2:kiowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        upr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.0-0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.0-0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.0-0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2.0-0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.0-0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.0-0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.0-0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3.0-0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.0-0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.0-0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.0-0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1.1-0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1-0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1-0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1-0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2.1-0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.0-1.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.0-1.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2.0-1.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.0-1.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.0-1.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.0-1.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3.0-1.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.0-1.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.0-1.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.0-1.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1.1-1.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1-1.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1-1.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1-1.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2.1-1.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-1.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-1.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-1.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.0-2.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2.0-2.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.0-2.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.0-2.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.0-2.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3.0-2.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.0-2.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.0-2.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.0-2.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1.1-2.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1-2.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1-2.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1-2.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2.1-2.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-2.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-2.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-2.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2.0-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.0-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.0-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.0-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3.0-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.0-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.0-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.0-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1.1-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2.1-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.0-0.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.0-0.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.0-0.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3.0-0.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.0-0.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.0-0.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.0-0.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1.1-0.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1-0.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1-0.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1-0.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2.1-0.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-0.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-0.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-0.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.0-1.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.0-1.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3.0-1.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.0-1.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.0-1.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.0-1.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1.1-1.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1-1.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1-1.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1-1.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2.1-1.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-1.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-1.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-1.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.0-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3.0-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.0-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.0-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.0-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1.1-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2.1-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3.0-3.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.0-3.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.0-3.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.0-3.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1.1-3.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1-3.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1-3.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1-3.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2.1-3.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-3.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-3.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-3.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.0-0.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.0-0.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.0-0.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1.1-0.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1-0.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1-0.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1-0.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2.1-0.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-0.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-0.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-0.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.0-1.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.0-1.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1.1-1.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1-1.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1-1.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1-1.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2.1-1.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-1.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-1.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-1.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.0-2.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1.1-2.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1-2.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1-2.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1-2.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2.1-2.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-2.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-2.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-2.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1.1-3.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1-3.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1-3.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1-3.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2.1-3.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-3.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-3.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-3.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1-0.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1-0.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1-0.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2.1-0.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-0.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-0.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-0.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1-1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1-1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2.1-1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1-2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2.1-2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2.1-3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-0.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-0.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-0.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-2.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          lwr</t>
   </si>
 </sst>
 </file>
@@ -582,6 +993,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -663,13 +1075,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
   </cols>
@@ -690,1328 +1102,2045 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-0.2814</v>
+        <v>0.02307692</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.17946</v>
+        <v>-58.920421</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>48043</v>
+        <v>58.966575</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>-1.568</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.9206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>-0.4655</v>
+        <v>0.63846154</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.17927</v>
+        <v>-58.305037</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>48043</v>
+        <v>59.58196</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>-2.597</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.2814</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-1.43</v>
+        <v>0.6</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.16945</v>
+        <v>-57.805976</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>48043</v>
+        <v>59.005976</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-8.439</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>-2.8387</v>
+        <v>0.1</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.15197</v>
+        <v>-58.843498</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>48043</v>
+        <v>59.043498</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>-18.679</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>-1.5023</v>
+        <v>7.6</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.16577</v>
+        <v>-51.343498</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>48043</v>
+        <v>66.543498</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>-9.063</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-5.2801</v>
+        <v>4.63846154</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.14749</v>
+        <v>-54.305037</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>48043</v>
+        <v>63.58196</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>-35.799</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-5.6183</v>
+        <v>1.8</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.14718</v>
+        <v>-57.71857</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>48043</v>
+        <v>61.31857</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-38.173</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>-5.3037</v>
+        <v>32.17142857</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.14736</v>
+        <v>-25.730951</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>48043</v>
+        <v>90.073808</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>-35.991</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>9</v>
+        <v>0.8673344</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>-5.6736</v>
+        <v>274.1</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.14725</v>
+        <v>215.156502</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>48043</v>
+        <v>333.043498</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>-38.531</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>-5.8146</v>
+        <v>147.56153846</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.14713</v>
+        <v>88.61804</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>48043</v>
+        <v>206.505037</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>-39.52</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-5.4741</v>
+        <v>93.05833333</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.14724</v>
+        <v>32.922974</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>48043</v>
+        <v>153.193693</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-37.18</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>9</v>
+        <v>1.86E-005</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-0.1841</v>
+        <v>58.46666667</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.14549</v>
+        <v>1.481974</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>48043</v>
+        <v>115.451359</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-1.265</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0.9833</v>
+        <v>0.0376429</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-1.1485</v>
+        <v>445.17692308</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.13321</v>
+        <v>386.233425</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>48043</v>
+        <v>504.120421</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-8.622</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-2.5572</v>
+        <v>210.36923077</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.11011</v>
+        <v>151.425733</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>48043</v>
+        <v>269.312729</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-23.224</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>-1.2209</v>
+        <v>187.05454545</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.12849</v>
+        <v>125.540388</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>48043</v>
+        <v>248.568703</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>-9.502</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>-4.9987</v>
+        <v>0.61538462</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.10385</v>
+        <v>-57.747375</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>48043</v>
+        <v>58.978145</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>-48.134</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>-5.3369</v>
+        <v>0.57692308</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.1034</v>
+        <v>-57.242916</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>48043</v>
+        <v>58.396762</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>-51.613</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>-5.0223</v>
+        <v>0.07692308</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0.10366</v>
+        <v>-58.285837</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>48043</v>
+        <v>58.439683</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-48.448</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>-5.3922</v>
+        <v>7.57692308</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.1035</v>
+        <v>-50.785837</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>48043</v>
+        <v>65.939683</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>-52.098</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-5.5332</v>
+        <v>4.61538462</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0.10333</v>
+        <v>-53.747375</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>48043</v>
+        <v>62.978145</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-53.549</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-5.1927</v>
+        <v>1.77692308</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.10348</v>
+        <v>-57.166575</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>48043</v>
+        <v>60.720421</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-50.181</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-0.9645</v>
+        <v>32.14835165</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0.13295</v>
+        <v>-25.162741</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>48043</v>
+        <v>89.459444</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-7.255</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>9</v>
+        <v>0.8584802</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>-2.3732</v>
+        <v>274.07692308</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.10979</v>
+        <v>215.714163</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>48043</v>
+        <v>332.439683</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-21.615</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>-1.0368</v>
+        <v>147.53846154</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0.12822</v>
+        <v>89.175702</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>48043</v>
+        <v>205.901221</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>-8.087</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>-4.8147</v>
+        <v>93.03525641</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.10351</v>
+        <v>33.469014</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>48043</v>
+        <v>152.601499</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>-46.513</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>9</v>
+        <v>1.44E-005</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>-5.1528</v>
+        <v>58.44358974</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0.10306</v>
+        <v>2.059807</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>48043</v>
+        <v>114.827373</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>-49.997</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>9</v>
+        <v>0.0334544</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>-4.8382</v>
+        <v>445.15384615</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.10333</v>
+        <v>386.791086</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>48043</v>
+        <v>503.516606</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>-46.825</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>-5.2081</v>
+        <v>210.34615385</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0.10316</v>
+        <v>151.983394</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>48043</v>
+        <v>268.708914</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>-50.485</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>-5.3491</v>
+        <v>187.03146853</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0.10299</v>
+        <v>126.073554</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>48043</v>
+        <v>247.989383</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>-51.938</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>-5.0087</v>
+        <v>-0.03846154</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0.10314</v>
+        <v>-57.8583</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>48043</v>
+        <v>57.781377</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>-48.561</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>-1.4087</v>
+        <v>-0.53846154</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.09291</v>
+        <v>-58.901221</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>48043</v>
+        <v>57.824298</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>-15.162</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>-0.0724</v>
+        <v>6.96153846</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0.11409</v>
+        <v>-51.401221</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>48043</v>
+        <v>65.324298</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>-0.634</v>
-      </c>
-      <c r="F33" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>-3.8502</v>
+        <v>4</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0.0854</v>
+        <v>-54.36276</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>48043</v>
+        <v>62.36276</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>-45.084</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>-4.1883</v>
+        <v>1.16153846</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.08485</v>
+        <v>-57.78196</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>48043</v>
+        <v>60.105037</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>-49.359</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>-3.8738</v>
+        <v>31.53296703</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.08517</v>
+        <v>-25.778125</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>48043</v>
+        <v>88.84406</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>-45.48</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>9</v>
+        <v>0.8759713</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>-4.2436</v>
+        <v>273.46153846</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.08498</v>
+        <v>215.098779</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>48043</v>
+        <v>331.824298</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>-49.94</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>-4.3847</v>
+        <v>146.92307692</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0.08477</v>
+        <v>88.560317</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>48043</v>
+        <v>205.285837</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>-51.725</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>-4.0442</v>
+        <v>92.41987179</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0.08495</v>
+        <v>32.853629</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>48043</v>
+        <v>151.986114</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>-47.606</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>9</v>
+        <v>1.73E-005</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1.3363</v>
+        <v>57.82820513</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.08601</v>
+        <v>1.444422</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>48043</v>
+        <v>114.211988</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>15.538</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>9</v>
+        <v>0.0378061</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>-2.4415</v>
+        <v>444.53846154</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0.04097</v>
+        <v>386.175702</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>48043</v>
+        <v>502.901221</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>-59.597</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>-2.7796</v>
+        <v>209.73076923</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0.03982</v>
+        <v>151.368009</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>48043</v>
+        <v>268.093529</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>-69.813</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>-2.4651</v>
+        <v>186.41608392</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0.04049</v>
+        <v>125.458169</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>48043</v>
+        <v>247.373999</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>-60.877</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>-2.8349</v>
+        <v>-0.5</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0.04007</v>
+        <v>-58.319839</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>48043</v>
+        <v>57.319839</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>-70.746</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>-2.9759</v>
+        <v>7</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0.03963</v>
+        <v>-50.819839</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>48043</v>
+        <v>64.819839</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>-75.092</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>-2.6355</v>
+        <v>4.03846154</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0.04002</v>
+        <v>-53.781377</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>48043</v>
+        <v>61.8583</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>-65.851</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>-3.7778</v>
+        <v>1.2</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>0.07783</v>
+        <v>-57.205976</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>48043</v>
+        <v>59.605976</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>-48.537</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>-4.116</v>
+        <v>31.57142857</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.07723</v>
+        <v>-25.186684</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>48043</v>
+        <v>88.329541</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>-53.292</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>9</v>
+        <v>0.866305</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>-3.8014</v>
+        <v>273.5</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0.07759</v>
+        <v>215.680161</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>48043</v>
+        <v>331.319839</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>-48.996</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>-4.1713</v>
+        <v>146.96153846</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>0.07737</v>
+        <v>89.1417</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>48043</v>
+        <v>204.781377</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>-53.915</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>-4.3123</v>
+        <v>92.45833333</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>0.07714</v>
+        <v>33.423943</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>48043</v>
+        <v>151.492724</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>-55.903</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>9</v>
+        <v>1.34E-005</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>-3.9718</v>
+        <v>57.86666667</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.07734</v>
+        <v>2.045049</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>48043</v>
+        <v>113.688284</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>-51.355</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>9</v>
+        <v>0.0334153</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>-0.3382</v>
+        <v>444.57692308</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>0.01314</v>
+        <v>386.757084</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>48043</v>
+        <v>502.396762</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>-25.726</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>-0.0236</v>
+        <v>209.76923077</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>0.01508</v>
+        <v>151.949392</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>48043</v>
+        <v>267.58907</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>-1.564</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>0.922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>-0.3935</v>
+        <v>186.45454545</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>0.0139</v>
+        <v>126.016235</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>48043</v>
+        <v>246.892856</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>-28.301</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>-0.5345</v>
+        <v>7.5</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>0.01257</v>
+        <v>-50.86276</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>48043</v>
+        <v>65.86276</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>-42.511</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>-0.194</v>
+        <v>4.53846154</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>0.01376</v>
+        <v>-53.824298</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>48043</v>
+        <v>62.901221</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>-14.099</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0.3146</v>
+        <v>1.7</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>0.01157</v>
+        <v>-57.243498</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>48043</v>
+        <v>60.643498</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>27.198</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>-0.0553</v>
+        <v>32.07142857</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>0.00998</v>
+        <v>-25.239664</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>48043</v>
+        <v>89.382521</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>-5.543</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>9</v>
+        <v>0.8607418</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>-0.1963</v>
+        <v>274</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0.00802</v>
+        <v>215.63724</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>48043</v>
+        <v>332.36276</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>-24.477</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0.1442</v>
+        <v>147.46153846</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>0.00978</v>
+        <v>89.098779</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>48043</v>
+        <v>205.824298</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>14.743</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>-0.3699</v>
+        <v>92.95833333</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>0.01242</v>
+        <v>33.392091</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>48043</v>
+        <v>152.524576</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>-29.778</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>9</v>
+        <v>1.48E-005</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>-0.5109</v>
+        <v>58.36666667</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>0.01091</v>
+        <v>1.982884</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>48043</v>
+        <v>114.750449</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>-46.819</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>9</v>
+        <v>0.0339732</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>-0.1704</v>
+        <v>445.07692308</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>0.01226</v>
+        <v>386.714163</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>48043</v>
+        <v>503.439683</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>-13.898</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>-0.141</v>
+        <v>210.26923077</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>0.00921</v>
+        <v>151.906471</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>48043</v>
+        <v>268.631991</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>-15.31</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0.1995</v>
+        <v>186.95454545</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>0.01078</v>
+        <v>125.996631</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>48043</v>
+        <v>247.91246</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>18.51</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>-2.96153846</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>-61.324298</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>55.401221</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>-5.8</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>-64.743498</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>53.143498</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="0" t="n">
-        <v>0.3405</v>
-      </c>
-      <c r="C67" s="0" t="n">
-        <v>0.00899</v>
-      </c>
-      <c r="D67" s="0" t="n">
-        <v>48043</v>
-      </c>
-      <c r="E67" s="0" t="n">
-        <v>37.852</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>9</v>
+      <c r="B69" s="0" t="n">
+        <v>24.57142857</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>-32.739664</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>81.882521</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>0.9844001</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>208.13724</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>324.86276</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>139.96153846</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>81.598779</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>198.324298</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>85.45833333</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>25.892091</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>145.024576</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>0.0001266</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>50.86666667</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>-5.517116</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>107.250449</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>0.1313344</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>437.57692308</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>379.214163</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>495.939683</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>202.76923077</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>144.406471</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>261.131991</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>179.45454545</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>118.496631</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>240.41246</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>-2.83846154</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>-61.78196</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>56.105037</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>27.53296703</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>-29.778125</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>84.84406</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>0.9564375</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>269.46153846</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>211.098779</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>327.824298</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>142.92307692</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>84.560317</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>201.285837</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>88.41987179</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>28.853629</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>147.986114</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>5.53E-005</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>53.82820513</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>-2.555578</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>110.211988</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>0.0798434</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>440.53846154</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>382.175702</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>498.901221</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>205.73076923</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>147.368009</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>264.093529</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>182.41608392</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>121.458169</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>243.373999</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>30.37142857</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>-27.530951</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>88.273808</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>0.9121667</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>272.3</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>213.356502</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>331.243498</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>145.76153846</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>86.81804</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>204.705037</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>91.25833333</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>31.122974</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>151.393693</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>3.13E-005</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>56.66666667</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>-0.318026</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>113.651359</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0.0530646</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>443.37692308</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>384.433425</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>502.320421</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>208.56923077</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>149.625733</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>267.512729</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>185.25454545</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>123.740388</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>246.768703</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>241.92857143</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>184.617479</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>299.239664</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>115.39010989</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>58.079017</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>172.701202</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>60.88690476</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>2.350704</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>119.423106</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>0.0321091</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>26.2952381</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>-28.999251</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>81.589727</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>0.96005</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>413.00549451</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>355.694402</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>470.316587</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>178.1978022</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>120.88671</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>235.508895</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>154.88311688</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>94.931328</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>214.834905</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>-126.53846154</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>-184.901221</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>-68.175702</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>-181.04166667</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>-240.607909</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>-121.475424</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>-215.63333333</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>-272.017116</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>-159.249551</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>171.07692308</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>112.714163</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>229.439683</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>-63.73076923</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>-122.093529</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>-5.368009</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>0.0174727</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>-87.04545455</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>-148.003369</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>-26.08754</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>0.0001413</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>-54.50320513</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>-114.069448</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>5.063037</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>0.1168134</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>-89.09487179</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>-145.478655</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>-32.711089</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>1.04E-005</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>297.61538462</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>239.252625</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>355.978145</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>62.80769231</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>4.444932</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>121.170452</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>0.0211293</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>39.49300699</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>-21.464908</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>100.450922</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>0.6724461</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>-34.59166667</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>-92.220275</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>23.036941</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>0.7831817</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>352.11858974</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>292.552347</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>411.684832</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>117.31089744</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>57.744655</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>176.87714</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>93.99621212</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>31.885079</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>156.107345</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>3.37E-005</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>386.71025641</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>330.326474</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>443.094039</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>151.9025641</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>95.518781</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>208.286347</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>128.58787879</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>69.521928</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>187.65383</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>-234.80769231</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>-293.170452</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>-176.444932</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>-258.12237762</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>-319.080292</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>-197.164463</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>-23.31468531</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>-84.2726</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>37.643229</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>0.9950561</v>
       </c>
     </row>
   </sheetData>
@@ -2030,2132 +3159,3259 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-0.1564</v>
+        <v>2.3461538</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.1616</v>
+        <v>-10.6264754</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>22728</v>
+        <v>15.318783</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>-0.968</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.9998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>-0.1339</v>
+        <v>2.5769231</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.157</v>
+        <v>-10.3957062</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>22728</v>
+        <v>15.549552</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>-0.853</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.9999</v>
+        <v>0.9999999</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-4.2956</v>
+        <v>1.6723077</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.1204</v>
+        <v>-11.4294056</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>22728</v>
+        <v>14.774021</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-35.688</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>-4.4752</v>
+        <v>7.402834</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.1199</v>
+        <v>-6.7141676</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>22728</v>
+        <v>21.519836</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>-37.338</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>79</v>
+        <v>0.9452908</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>-4.2488</v>
+        <v>54.7307692</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.12</v>
+        <v>41.75814</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>22728</v>
+        <v>67.703398</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>-35.417</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-0.0833</v>
+        <v>46.1153846</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.1525</v>
+        <v>33.1427554</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>22728</v>
+        <v>59.088014</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>-0.546</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-0.4397</v>
+        <v>31.7923077</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.1456</v>
+        <v>18.6905944</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>22728</v>
+        <v>44.894021</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-3.02</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0.1456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>-0.3039</v>
+        <v>1.4531773</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.1467</v>
+        <v>-11.9357916</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>22728</v>
+        <v>14.842146</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>-2.072</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0.7538</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>-0.3474</v>
+        <v>2.0384615</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.1869</v>
+        <v>-10.9341677</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>22728</v>
+        <v>15.011091</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>-1.859</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0.8733</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>-0.5375</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.1812</v>
+        <v>-8.9726292</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>22728</v>
+        <v>16.972629</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>-2.966</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0.167</v>
+        <v>0.9999258</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-0.4769</v>
+        <v>3.5923077</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.1809</v>
+        <v>-9.5094056</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>22728</v>
+        <v>16.694021</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-2.636</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0.3452</v>
+        <v>0.9999878</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-3.8913</v>
+        <v>-0.597166</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.1211</v>
+        <v>-14.7141676</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>22728</v>
+        <v>13.519836</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-32.128</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-4.0786</v>
+        <v>0.9615385</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.1203</v>
+        <v>-12.0110908</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>22728</v>
+        <v>13.934168</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-33.907</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-4.04</v>
+        <v>1.8076923</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.1206</v>
+        <v>-11.1649369</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>22728</v>
+        <v>14.780322</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-33.491</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.0225</v>
+        <v>0.8323077</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.1573</v>
+        <v>-12.2694056</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>22728</v>
+        <v>13.934021</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>-4.1391</v>
+        <v>14.8286713</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.1208</v>
+        <v>1.279202</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>22728</v>
+        <v>28.378141</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>-34.259</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>79</v>
+        <v>0.0158186</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>-4.3188</v>
+        <v>36.0384615</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.1203</v>
+        <v>23.0658323</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>22728</v>
+        <v>49.011091</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>-35.895</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>-4.0923</v>
+        <v>40.5384615</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0.1204</v>
+        <v>27.5658323</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>22728</v>
+        <v>53.511091</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-33.983</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.0732</v>
+        <v>30.6323077</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.1529</v>
+        <v>17.5305944</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>22728</v>
+        <v>43.734021</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-0.2833</v>
+        <v>0.2307692</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0.146</v>
+        <v>-12.74186</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>22728</v>
+        <v>13.203398</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-1.941</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>0.8325</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-0.1475</v>
+        <v>-0.6738462</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.147</v>
+        <v>-13.7755595</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>22728</v>
+        <v>12.427867</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-1.003</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>0.9996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-0.191</v>
+        <v>5.0566802</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0.1872</v>
+        <v>-9.0603215</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>22728</v>
+        <v>19.173682</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-1.02</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>0.9996</v>
+        <v>0.9993572</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>-0.3811</v>
+        <v>52.3846154</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.1815</v>
+        <v>39.4119861</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>22728</v>
+        <v>65.357245</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-2.099</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0.7357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>-0.3205</v>
+        <v>43.7692308</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0.1812</v>
+        <v>30.7966015</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>22728</v>
+        <v>56.74186</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>-1.769</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>0.9107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>-3.7348</v>
+        <v>29.4461538</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.1216</v>
+        <v>16.3444405</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>22728</v>
+        <v>42.547867</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>-30.721</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>-3.9222</v>
+        <v>-0.8929766</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0.1207</v>
+        <v>-14.2819454</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>22728</v>
+        <v>12.495992</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>-32.484</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>-3.8835</v>
+        <v>-0.3076923</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.1211</v>
+        <v>-13.2803216</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>22728</v>
+        <v>12.664937</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>-32.074</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>-4.1617</v>
+        <v>1.6538462</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0.1147</v>
+        <v>-11.3187831</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>22728</v>
+        <v>14.626475</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>-36.296</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>-4.3413</v>
+        <v>1.2461538</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0.1141</v>
+        <v>-11.8555595</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>22728</v>
+        <v>14.347867</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>-38.039</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>-4.1149</v>
+        <v>-2.9433198</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0.1142</v>
+        <v>-17.0603215</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>22728</v>
+        <v>11.173682</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>-36.019</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>79</v>
+        <v>0.9999999</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.0506</v>
+        <v>-1.3846154</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.1481</v>
+        <v>-14.3572446</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>22728</v>
+        <v>11.588014</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="F32" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>-0.3058</v>
+        <v>-0.5384615</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0.1409</v>
+        <v>-13.5110908</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>22728</v>
+        <v>12.434168</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>-2.17</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>0.6865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>-0.17</v>
+        <v>-1.5138462</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0.142</v>
+        <v>-14.6155595</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>22728</v>
+        <v>11.587867</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>-1.197</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>0.9974</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>-0.2135</v>
+        <v>12.4825175</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.1832</v>
+        <v>-1.0669519</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>22728</v>
+        <v>26.031987</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>-1.165</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>0.998</v>
+        <v>0.1153582</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>-0.4036</v>
+        <v>33.6923077</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.1775</v>
+        <v>20.7196784</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>22728</v>
+        <v>46.664937</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>-2.274</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>0.6101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>-0.343</v>
+        <v>38.1923077</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.1772</v>
+        <v>25.2196784</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>22728</v>
+        <v>51.164937</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>-1.936</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>0.8348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>-3.7574</v>
+        <v>28.2861538</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0.1155</v>
+        <v>15.1844405</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>22728</v>
+        <v>41.387867</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>-32.545</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>-3.9447</v>
+        <v>-0.9046154</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0.1146</v>
+        <v>-14.0063287</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>22728</v>
+        <v>12.197098</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>-34.428</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>-3.9061</v>
+        <v>4.8259109</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.1149</v>
+        <v>-9.2910907</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>22728</v>
+        <v>18.942913</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>-33.985</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>79</v>
+        <v>0.9996654</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>-0.1796</v>
+        <v>52.1538462</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0.0412</v>
+        <v>39.1812169</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>22728</v>
+        <v>65.126475</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>-4.364</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>0.0012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0.0468</v>
+        <v>43.5384615</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0.0415</v>
+        <v>30.5658323</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>22728</v>
+        <v>56.511091</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1.128</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>0.9986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>4.2123</v>
+        <v>29.2153846</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0.1085</v>
+        <v>16.1136713</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>22728</v>
+        <v>42.317098</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>38.829</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>3.8558</v>
+        <v>-1.1237458</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0.0986</v>
+        <v>-14.5127146</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>22728</v>
+        <v>12.265223</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>39.11</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>3.9917</v>
+        <v>-0.5384615</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0.1002</v>
+        <v>-13.5110908</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>22728</v>
+        <v>12.434168</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>39.853</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>3.9482</v>
+        <v>1.4230769</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0.153</v>
+        <v>-11.5495523</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>22728</v>
+        <v>14.395706</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>25.801</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>3.758</v>
+        <v>1.0153846</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>0.1462</v>
+        <v>-12.0863287</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>22728</v>
+        <v>14.117098</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>25.713</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>3.8186</v>
+        <v>-3.1740891</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.1457</v>
+        <v>-17.2910907</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>22728</v>
+        <v>10.942913</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>26.21</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>79</v>
+        <v>0.9999995</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.4043</v>
+        <v>-1.6153846</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0.0451</v>
+        <v>-14.5880139</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>22728</v>
+        <v>11.357245</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>8.974</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.2169</v>
+        <v>-0.7692308</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>0.0425</v>
+        <v>-13.74186</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>22728</v>
+        <v>12.203398</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>5.101</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0.2556</v>
+        <v>-1.7446154</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>0.0435</v>
+        <v>-14.8463287</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>22728</v>
+        <v>11.357098</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0.2264</v>
+        <v>12.2517483</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.04</v>
+        <v>-1.2977211</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>22728</v>
+        <v>25.801218</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>5.663</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>79</v>
+        <v>0.1360063</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>4.3919</v>
+        <v>33.4615385</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>0.1079</v>
+        <v>20.4889092</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>22728</v>
+        <v>46.434168</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>40.696</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>4.0354</v>
+        <v>37.9615385</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>0.098</v>
+        <v>24.9889092</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>22728</v>
+        <v>50.934168</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>41.19</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>4.1713</v>
+        <v>28.0553846</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>0.0996</v>
+        <v>14.9536713</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>22728</v>
+        <v>41.157098</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>41.901</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>4.1278</v>
+        <v>5.7305263</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>0.1526</v>
+        <v>-8.5051864</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>22728</v>
+        <v>19.966239</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>27.045</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>79</v>
+        <v>0.9970018</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>3.9377</v>
+        <v>53.0584615</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>0.1457</v>
+        <v>39.9567482</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>22728</v>
+        <v>66.160175</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>27.019</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>3.9982</v>
+        <v>44.4430769</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>0.1453</v>
+        <v>31.3413636</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>22728</v>
+        <v>57.54479</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>27.522</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0.5839</v>
+        <v>30.12</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>0.0437</v>
+        <v>16.8904621</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>22728</v>
+        <v>43.349538</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>13.376</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.3965</v>
+        <v>-0.2191304</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0.041</v>
+        <v>-13.7332071</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>22728</v>
+        <v>13.294946</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>9.663</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0.4352</v>
+        <v>0.3661538</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>0.0421</v>
+        <v>-12.7355595</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>22728</v>
+        <v>13.467867</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>4.1655</v>
+        <v>2.3276923</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>0.108</v>
+        <v>-10.774021</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>22728</v>
+        <v>15.429406</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>38.555</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>3.809</v>
+        <v>1.92</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>0.0981</v>
+        <v>-11.3095379</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>22728</v>
+        <v>15.149538</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>38.826</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>3.9449</v>
+        <v>-2.2694737</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>0.0997</v>
+        <v>-16.5051864</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>22728</v>
+        <v>11.966239</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>39.574</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>3.9013</v>
+        <v>-0.7107692</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>0.1527</v>
+        <v>-13.8124825</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>22728</v>
+        <v>12.390944</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>25.547</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>3.7112</v>
+        <v>0.1353846</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>0.1458</v>
+        <v>-12.9663287</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>22728</v>
+        <v>13.237098</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>25.45</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>3.7718</v>
+        <v>-0.84</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>0.1454</v>
+        <v>-14.0695379</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>22728</v>
+        <v>12.389538</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>25.947</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>0.3575</v>
+        <v>13.1563636</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>0.044</v>
+        <v>-0.5167451</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>22728</v>
+        <v>26.829472</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>8.129</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>79</v>
+        <v>0.0758065</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0.1701</v>
+        <v>34.3661538</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>0.0414</v>
+        <v>21.2644405</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>22728</v>
+        <v>47.467867</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>4.111</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <v>0.0036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0.2088</v>
+        <v>38.8661538</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>0.0424</v>
+        <v>25.7644405</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>22728</v>
+        <v>51.967867</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>4.921</v>
-      </c>
-      <c r="F70" s="0" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>-0.3565</v>
+        <v>28.96</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>0.1359</v>
+        <v>15.7304621</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>22728</v>
+        <v>42.189538</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>-2.623</v>
-      </c>
-      <c r="F71" s="0" t="n">
-        <v>0.3544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>-0.2206</v>
+        <v>47.3279352</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>0.1371</v>
+        <v>33.2109336</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>22728</v>
+        <v>61.444937</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>-1.61</v>
-      </c>
-      <c r="F72" s="0" t="n">
-        <v>0.957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>-0.2641</v>
+        <v>38.7125506</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>0.1794</v>
+        <v>24.595549</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>22728</v>
+        <v>52.829552</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>-1.472</v>
-      </c>
-      <c r="F73" s="0" t="n">
-        <v>0.9801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>-0.4543</v>
+        <v>24.3894737</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>0.1735</v>
+        <v>10.1537609</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>22728</v>
+        <v>38.625186</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>-2.617</v>
-      </c>
-      <c r="F74" s="0" t="n">
-        <v>0.3578</v>
+        <v>4E-007</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>-0.3937</v>
+        <v>-5.9496568</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>0.1732</v>
+        <v>-20.4501778</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>22728</v>
+        <v>8.550864</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>-2.273</v>
-      </c>
-      <c r="F75" s="0" t="n">
-        <v>0.611</v>
+        <v>0.9961946</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>-3.808</v>
+        <v>-5.3643725</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>0.1093</v>
+        <v>-19.4813741</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>22728</v>
+        <v>8.752629</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>-34.834</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>79</v>
+        <v>0.9985746</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>-3.9954</v>
+        <v>-3.402834</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>0.1084</v>
+        <v>-17.5198356</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>22728</v>
+        <v>10.714168</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>-36.858</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>79</v>
+        <v>0.9999985</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>-3.9567</v>
+        <v>-3.8105263</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>0.1088</v>
+        <v>-18.0462391</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>22728</v>
+        <v>10.425186</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>-36.375</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>79</v>
+        <v>0.9999917</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0.1358</v>
+        <v>-8</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>0.1293</v>
+        <v>-23.1753208</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>22728</v>
+        <v>7.175321</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="F79" s="0" t="n">
-        <v>0.9994</v>
+        <v>0.9425725</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>0.0923</v>
+        <v>-6.4412955</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>0.1736</v>
+        <v>-20.5582972</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>22728</v>
+        <v>7.675706</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>0.532</v>
-      </c>
-      <c r="F80" s="0" t="n">
-        <v>1</v>
+        <v>0.9867318</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>-0.0978</v>
+        <v>-5.5951417</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>0.1675</v>
+        <v>-19.7121433</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>22728</v>
+        <v>8.52186</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>-0.584</v>
-      </c>
-      <c r="F81" s="0" t="n">
-        <v>1</v>
+        <v>0.9975377</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>-0.0372</v>
+        <v>-6.5705263</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>0.1671</v>
+        <v>-20.8062391</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>22728</v>
+        <v>7.665186</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>-0.223</v>
-      </c>
-      <c r="F82" s="0" t="n">
-        <v>1</v>
+        <v>0.9849375</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>-3.4515</v>
+        <v>7.4258373</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>0.0995</v>
+        <v>-7.2230106</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>22728</v>
+        <v>22.074685</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>-34.686</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>79</v>
+        <v>0.9602838</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>-3.6389</v>
+        <v>28.6356275</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>0.0985</v>
+        <v>14.5186259</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>22728</v>
+        <v>42.752629</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>-36.944</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>-3.6002</v>
+        <v>33.1356275</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>0.0989</v>
+        <v>19.0186259</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>22728</v>
+        <v>47.252629</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>-36.399</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>-0.0435</v>
+        <v>23.2294737</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>0.1745</v>
+        <v>8.9937609</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>22728</v>
+        <v>37.465186</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>-0.249</v>
-      </c>
-      <c r="F86" s="0" t="n">
-        <v>1</v>
+        <v>2.1E-006</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>-0.2336</v>
+        <v>-8.6153846</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>0.1684</v>
+        <v>-21.5880139</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>22728</v>
+        <v>4.357245</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>-1.387</v>
-      </c>
-      <c r="F87" s="0" t="n">
-        <v>0.9885</v>
+        <v>0.6856805</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>-0.173</v>
+        <v>-22.9384615</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>0.1681</v>
+        <v>-36.0401748</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>22728</v>
+        <v>-9.836748</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>-1.03</v>
-      </c>
-      <c r="F88" s="0" t="n">
-        <v>0.9995</v>
+        <v>2E-007</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>-3.5874</v>
+        <v>-53.277592</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>0.1011</v>
+        <v>-66.6665608</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>22728</v>
+        <v>-39.888623</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>-35.496</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>-3.7747</v>
+        <v>-52.6923077</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>0.1001</v>
+        <v>-65.6649369</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>22728</v>
+        <v>-39.719678</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>-37.722</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>-3.7361</v>
+        <v>-50.7307692</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>0.1005</v>
+        <v>-63.7033985</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>22728</v>
+        <v>-37.75814</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>-37.184</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>-0.1901</v>
+        <v>-51.1384615</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>0.2044</v>
+        <v>-64.2401748</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>22728</v>
+        <v>-38.036748</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="F92" s="0" t="n">
-        <v>0.9998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>-0.1295</v>
+        <v>-55.3279352</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>0.2041</v>
+        <v>-69.4449368</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>22728</v>
+        <v>-41.210934</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>-0.635</v>
-      </c>
-      <c r="F93" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>-3.5439</v>
+        <v>-53.7692308</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>0.1536</v>
+        <v>-66.74186</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>22728</v>
+        <v>-40.796602</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>-23.069</v>
-      </c>
-      <c r="F94" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>-3.7312</v>
+        <v>-52.9230769</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>0.153</v>
+        <v>-65.8957062</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>22728</v>
+        <v>-39.950448</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>-24.393</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>-3.6925</v>
+        <v>-53.8984615</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>0.1532</v>
+        <v>-67.0001748</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>22728</v>
+        <v>-40.796748</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>-24.098</v>
-      </c>
-      <c r="F96" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0.0606</v>
+        <v>-39.9020979</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>0.1989</v>
+        <v>-53.4515672</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>22728</v>
+        <v>-26.352629</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>0.305</v>
-      </c>
-      <c r="F97" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>-3.3537</v>
+        <v>-18.6923077</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>0.1468</v>
+        <v>-31.6649369</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>22728</v>
+        <v>-5.719678</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>-22.85</v>
-      </c>
-      <c r="F98" s="0" t="s">
-        <v>79</v>
+        <v>7.45E-005</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>-3.5411</v>
+        <v>-14.1923077</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>0.1461</v>
+        <v>-27.1649369</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>22728</v>
+        <v>-1.219678</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>-24.239</v>
-      </c>
-      <c r="F99" s="0" t="s">
-        <v>79</v>
+        <v>0.0158989</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>-3.5024</v>
+        <v>-24.0984615</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>0.1464</v>
+        <v>-37.2001748</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>22728</v>
+        <v>-10.996748</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>-23.929</v>
-      </c>
-      <c r="F100" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>-3.4143</v>
+        <v>-14.3230769</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>0.1463</v>
+        <v>-27.4247902</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>22728</v>
+        <v>-1.221364</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>-23.335</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>79</v>
+        <v>0.0160643</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>-3.6017</v>
+        <v>-44.6622074</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>0.1456</v>
+        <v>-58.0511762</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>22728</v>
+        <v>-31.273239</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>-24.732</v>
-      </c>
-      <c r="F102" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>-3.563</v>
+        <v>-44.0769231</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>0.1459</v>
+        <v>-57.0495523</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>22728</v>
+        <v>-31.104294</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>-24.419</v>
-      </c>
-      <c r="F103" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>-0.1874</v>
+        <v>-42.1153846</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>0.0449</v>
+        <v>-55.0880139</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>22728</v>
+        <v>-29.142755</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>-4.169</v>
-      </c>
-      <c r="F104" s="0" t="n">
-        <v>0.0028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>-0.1487</v>
+        <v>-42.5230769</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>0.0459</v>
+        <v>-55.6247902</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>22728</v>
+        <v>-29.421364</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>-3.239</v>
-      </c>
-      <c r="F105" s="0" t="n">
-        <v>0.0795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>0.0387</v>
+        <v>-46.7125506</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>0.0434</v>
+        <v>-60.8295522</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>22728</v>
+        <v>-32.595549</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>0.891</v>
-      </c>
-      <c r="F106" s="0" t="n">
-        <v>0.9999</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>-45.1538462</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>-58.1264754</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>-32.181217</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>-44.3076923</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>-57.2803216</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>-31.335063</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>-45.2830769</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>-58.3847902</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>-32.181364</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>-31.2867133</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>-44.8361826</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>-17.737244</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>-10.0769231</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>-23.0495523</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>2.895706</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>0.381052</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>-5.5769231</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>-18.5495523</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>7.395706</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>0.9933037</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>-15.4830769</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>-28.5847902</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>-2.381364</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>0.0047949</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>-30.3391304</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>-43.8532071</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>-16.825054</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>-29.7538462</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>-42.8555595</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>-16.652133</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>-27.7923077</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>-40.894021</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>-14.690594</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>-28.2</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>-41.4295379</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>-14.970462</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>-32.3894737</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>-46.6251864</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>-18.153761</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>-30.8307692</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>-43.9324825</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>-17.729056</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>-29.9846154</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>-43.0863287</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>-16.882902</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>-30.96</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>-44.1895379</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>-17.730462</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>-16.9636364</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>-30.6367451</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>-3.290528</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>0.0020119</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>4.2461538</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>-8.8555595</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>17.347867</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>0.9998448</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>8.7461538</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>-4.3555595</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>21.847867</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>0.676629</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>-14.3895379</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>12.069538</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>0.5852843</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>-12.8036845</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>13.974253</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>2.5468227</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>-10.8421461</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>15.935792</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>2.1391304</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>-11.3749462</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>15.653207</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>-2.0503432</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>-16.5508643</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>12.450178</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>-0.4916388</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>-13.8806076</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>12.89733</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>0.3545151</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>-13.0344538</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>13.743484</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>-0.6208696</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>-14.1349462</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>12.893207</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>13.3754941</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>-0.5731079</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>27.324096</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>0.0785062</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>34.5852843</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>21.1963155</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>47.974253</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>39.0852843</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>25.6963155</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>52.474253</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>29.1791304</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>15.6650538</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>42.693207</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>1.9615385</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>-11.0110908</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>14.934168</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>1.5538462</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>-11.5478672</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>14.655559</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>-2.6356275</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>-16.7526292</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>11.481374</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>-1.0769231</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>-14.0495523</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>11.895706</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>-0.2307692</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>-13.2033985</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>12.74186</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>-1.2061538</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>-14.3078672</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>11.895559</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>12.7902098</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>-0.7592596</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>26.339679</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>0.0917733</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>21.0273708</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>46.972629</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>25.5273708</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>51.472629</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>28.5938462</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>15.4921328</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>41.695559</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>-0.4076923</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>-13.5094056</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>12.694021</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>-4.597166</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>-18.7141676</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>9.519836</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>0.9998336</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>-3.0384615</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>-16.0110908</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>9.934168</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>0.9999991</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>-2.1923077</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>-15.1649369</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>10.780322</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>-3.1676923</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>-16.2694056</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>9.934021</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>0.9999984</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B152" s="0" t="n">
+        <v>10.8286713</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>-2.720798</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>24.378141</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>0.3266471</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B153" s="0" t="n">
+        <v>32.0384615</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>19.0658323</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>45.011091</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B154" s="0" t="n">
+        <v>36.5384615</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>23.5658323</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>49.511091</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B155" s="0" t="n">
+        <v>26.6323077</v>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>13.5305944</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>39.734021</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B156" s="0" t="n">
+        <v>-4.1894737</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>-18.4251864</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>10.046239</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>0.9999634</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B157" s="0" t="n">
+        <v>-2.6307692</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>-15.7324825</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>10.470944</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>0.9999999</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>-1.7846154</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>-14.8863287</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>11.317098</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B159" s="0" t="n">
+        <v>-2.76</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>-15.9895379</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>10.469538</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>0.9999999</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B160" s="0" t="n">
+        <v>11.2363636</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>-2.4367451</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>24.909472</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>0.2763091</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B161" s="0" t="n">
+        <v>32.4461538</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>19.3444405</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>45.547867</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B162" s="0" t="n">
+        <v>36.9461538</v>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>23.8444405</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>50.047867</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="B163" s="0" t="n">
+        <v>27.04</v>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>13.8104621</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>40.269538</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B164" s="0" t="n">
+        <v>1.5587045</v>
+      </c>
+      <c r="C164" s="0" t="n">
+        <v>-12.5582972</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>15.675706</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B165" s="0" t="n">
+        <v>2.4048583</v>
+      </c>
+      <c r="C165" s="0" t="n">
+        <v>-11.7121433</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>16.52186</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B166" s="0" t="n">
+        <v>1.4294737</v>
+      </c>
+      <c r="C166" s="0" t="n">
+        <v>-12.8062391</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>15.665186</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B167" s="0" t="n">
+        <v>15.4258373</v>
+      </c>
+      <c r="C167" s="0" t="n">
+        <v>0.7769894</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>30.074685</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>0.0266886</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B168" s="0" t="n">
+        <v>36.6356275</v>
+      </c>
+      <c r="C168" s="0" t="n">
+        <v>22.5186259</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>50.752629</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B169" s="0" t="n">
+        <v>41.1356275</v>
+      </c>
+      <c r="C169" s="0" t="n">
+        <v>27.0186259</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>55.252629</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B170" s="0" t="n">
+        <v>31.2294737</v>
+      </c>
+      <c r="C170" s="0" t="n">
+        <v>16.9937609</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>45.465186</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B171" s="0" t="n">
+        <v>0.8461538</v>
+      </c>
+      <c r="C171" s="0" t="n">
+        <v>-12.1264754</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>13.818783</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B172" s="0" t="n">
+        <v>-0.1292308</v>
+      </c>
+      <c r="C172" s="0" t="n">
+        <v>-13.2309441</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <v>12.972483</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B173" s="0" t="n">
+        <v>13.8671329</v>
+      </c>
+      <c r="C173" s="0" t="n">
+        <v>0.3176635</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>27.416602</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>0.0381169</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B174" s="0" t="n">
+        <v>35.0769231</v>
+      </c>
+      <c r="C174" s="0" t="n">
+        <v>22.1042938</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>48.049552</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B175" s="0" t="n">
+        <v>39.5769231</v>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>26.6042938</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>52.549552</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B176" s="0" t="n">
+        <v>29.6707692</v>
+      </c>
+      <c r="C176" s="0" t="n">
+        <v>16.5690559</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>42.772483</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B177" s="0" t="n">
+        <v>-0.9753846</v>
+      </c>
+      <c r="C177" s="0" t="n">
+        <v>-14.0770979</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>12.126329</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B178" s="0" t="n">
+        <v>13.020979</v>
+      </c>
+      <c r="C178" s="0" t="n">
+        <v>-0.5284903</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>26.570448</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <v>0.0767904</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B179" s="0" t="n">
+        <v>34.2307692</v>
+      </c>
+      <c r="C179" s="0" t="n">
+        <v>21.25814</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>47.203398</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B180" s="0" t="n">
+        <v>38.7307692</v>
+      </c>
+      <c r="C180" s="0" t="n">
+        <v>25.75814</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <v>51.703398</v>
+      </c>
+      <c r="E180" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B181" s="0" t="n">
+        <v>28.8246154</v>
+      </c>
+      <c r="C181" s="0" t="n">
+        <v>15.7229021</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>41.926329</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B182" s="0" t="n">
+        <v>13.9963636</v>
+      </c>
+      <c r="C182" s="0" t="n">
+        <v>0.3232549</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>27.669472</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <v>0.0380285</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B183" s="0" t="n">
+        <v>35.2061538</v>
+      </c>
+      <c r="C183" s="0" t="n">
+        <v>22.1044405</v>
+      </c>
+      <c r="D183" s="0" t="n">
+        <v>48.307867</v>
+      </c>
+      <c r="E183" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B184" s="0" t="n">
+        <v>39.7061538</v>
+      </c>
+      <c r="C184" s="0" t="n">
+        <v>26.6044405</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <v>52.807867</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B185" s="0" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C185" s="0" t="n">
+        <v>16.5704621</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <v>43.029538</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B186" s="0" t="n">
+        <v>21.2097902</v>
+      </c>
+      <c r="C186" s="0" t="n">
+        <v>7.6603209</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <v>34.75926</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <v>7.6E-006</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B187" s="0" t="n">
+        <v>25.7097902</v>
+      </c>
+      <c r="C187" s="0" t="n">
+        <v>12.1603209</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>39.25926</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B188" s="0" t="n">
+        <v>15.8036364</v>
+      </c>
+      <c r="C188" s="0" t="n">
+        <v>2.1305277</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <v>29.476745</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <v>0.0069183</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B189" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C189" s="0" t="n">
+        <v>-8.4726292</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>17.472629</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>0.9995887</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B190" s="0" t="n">
+        <v>-5.4061538</v>
+      </c>
+      <c r="C190" s="0" t="n">
+        <v>-18.5078672</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>7.695559</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>0.9959198</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B191" s="0" t="n">
+        <v>-9.9061538</v>
+      </c>
+      <c r="C191" s="0" t="n">
+        <v>-23.0078672</v>
+      </c>
+      <c r="D191" s="0" t="n">
+        <v>3.195559</v>
+      </c>
+      <c r="E191" s="0" t="n">
+        <v>0.4345609</v>
       </c>
     </row>
   </sheetData>
@@ -4174,13 +6430,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
   </cols>
@@ -4190,739 +6446,1138 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>317</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>73</v>
+        <v>318</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.06017</v>
+        <v>16.4145299</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.0906</v>
+        <v>-26.0147264</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>12346</v>
+        <v>58.84379</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0.664</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.9992</v>
+        <v>0.9816959</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>-0.05178</v>
+        <v>-0.508547</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.0871</v>
+        <v>-42.9378033</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>12346</v>
+        <v>41.92071</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>-0.595</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.9996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-0.09763</v>
+        <v>-2.47343</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.0697</v>
+        <v>-46.2896836</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>12346</v>
+        <v>41.34282</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-1.401</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.8977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.0506</v>
+        <v>9.7936508</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.0706</v>
+        <v>-31.8564913</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>12346</v>
+        <v>51.44379</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0.716</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.9986</v>
+        <v>0.9997821</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.05916</v>
+        <v>60.491453</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.0705</v>
+        <v>18.0621967</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>12346</v>
+        <v>102.92071</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.9957</v>
+        <v>0.0002507</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-0.55896</v>
+        <v>43.1068376</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.0656</v>
+        <v>0.6775813</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>12346</v>
+        <v>85.53609</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>-8.522</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>79</v>
+        <v>0.0426502</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-0.54895</v>
+        <v>27.6805556</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.0656</v>
+        <v>-15.6399609</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>12346</v>
+        <v>71.00107</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-8.37</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>79</v>
+        <v>0.61965</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>-0.50435</v>
+        <v>60.8293651</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.0656</v>
+        <v>19.179223</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>12346</v>
+        <v>102.47951</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>-7.685</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>79</v>
+        <v>0.0001494</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>-0.11195</v>
+        <v>285.7222222</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.087</v>
+        <v>243.292966</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>12346</v>
+        <v>328.15148</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>-1.287</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0.9353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>-0.1578</v>
+        <v>131.9529915</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.0696</v>
+        <v>89.5237352</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>12346</v>
+        <v>174.38225</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>-2.269</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0.3615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-0.00957</v>
+        <v>112.1805556</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.0705</v>
+        <v>68.8600391</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>12346</v>
+        <v>155.50107</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-0.136</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-0.00101</v>
+        <v>-16.9230769</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.0703</v>
+        <v>-59.7507387</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>12346</v>
+        <v>25.90458</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-0.014</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1</v>
+        <v>0.9784345</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-0.61912</v>
+        <v>-18.8879599</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.0655</v>
+        <v>-63.0901195</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>12346</v>
+        <v>25.3142</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-9.457</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>79</v>
+        <v>0.9613623</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-0.60911</v>
+        <v>-6.6208791</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.0655</v>
+        <v>-48.6768081</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>12346</v>
+        <v>35.43505</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-9.304</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>79</v>
+        <v>0.9999962</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>-0.56452</v>
+        <v>44.0769231</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.0655</v>
+        <v>1.2492613</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>12346</v>
+        <v>86.90458</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>-8.617</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>79</v>
+        <v>0.037299</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>-0.04585</v>
+        <v>26.6923077</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.0649</v>
+        <v>-16.1353541</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>12346</v>
+        <v>69.51997</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>-0.706</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0.9987</v>
+        <v>0.6563986</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.10238</v>
+        <v>11.2660256</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.066</v>
+        <v>-32.4447736</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>12346</v>
+        <v>54.97682</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1.552</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0.8304</v>
+        <v>0.9994737</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.11094</v>
+        <v>44.4148352</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0.0658</v>
+        <v>2.3589062</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>12346</v>
+        <v>86.47076</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1.687</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0.7548</v>
+        <v>0.02817</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>-0.50718</v>
+        <v>269.3076923</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.0605</v>
+        <v>226.4800305</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>12346</v>
+        <v>312.13535</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>-8.383</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-0.49717</v>
+        <v>115.5384615</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0.0605</v>
+        <v>72.7107998</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>12346</v>
+        <v>158.36612</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-8.218</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-0.45257</v>
+        <v>95.7660256</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.0605</v>
+        <v>52.0552264</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>12346</v>
+        <v>139.47682</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-7.475</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.14823</v>
+        <v>-1.9648829</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0.0403</v>
+        <v>-46.1670426</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>12346</v>
+        <v>42.23728</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>0.0072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.15679</v>
+        <v>10.3021978</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.04</v>
+        <v>-31.7537312</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>12346</v>
+        <v>52.35813</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>3.923</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0.0028</v>
+        <v>0.9996762</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>-0.46132</v>
+        <v>61</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0.0305</v>
+        <v>18.1723382</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>12346</v>
+        <v>103.82766</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>-15.12</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>79</v>
+        <v>0.0002559</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>-0.45132</v>
+        <v>43.6153846</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.0305</v>
+        <v>0.7877228</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>12346</v>
+        <v>86.44305</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>-14.792</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>79</v>
+        <v>0.0416208</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>-0.40672</v>
+        <v>28.1891026</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0.0306</v>
+        <v>-15.5216967</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>12346</v>
+        <v>71.8999</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>-13.29</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>79</v>
+        <v>0.6056233</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.00856</v>
+        <v>61.3379121</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.0416</v>
+        <v>19.2819831</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>12346</v>
+        <v>103.39384</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.206</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>1</v>
+        <v>0.000154</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>-0.60956</v>
+        <v>286.2307692</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0.0327</v>
+        <v>243.4031075</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>12346</v>
+        <v>329.05843</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>-18.651</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>-0.59955</v>
+        <v>132.4615385</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0.0327</v>
+        <v>89.6338767</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>12346</v>
+        <v>175.2892</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>-18.345</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>-0.55495</v>
+        <v>112.6891026</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0.0328</v>
+        <v>68.9783033</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>12346</v>
+        <v>156.3999</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>-16.936</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>-0.61811</v>
+        <v>12.2670807</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.0323</v>
+        <v>-31.1877632</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>12346</v>
+        <v>55.72192</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>-19.137</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>79</v>
+        <v>0.998768</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>-0.60811</v>
+        <v>62.9648829</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0.0323</v>
+        <v>18.7627233</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>12346</v>
+        <v>107.16704</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>-18.827</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>79</v>
+        <v>0.0002553</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>-0.56351</v>
+        <v>45.5802676</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0.0324</v>
+        <v>1.3781079</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>12346</v>
+        <v>89.78243</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>-17.4</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>79</v>
+        <v>0.0365384</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.01001</v>
+        <v>30.1539855</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.0194</v>
+        <v>-14.9043797</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>12346</v>
+        <v>75.21235</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>0.517</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>0.9999</v>
+        <v>0.5476287</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.05461</v>
+        <v>63.302795</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.0195</v>
+        <v>19.8479511</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>12346</v>
+        <v>106.75764</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>2.798</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>0.1158</v>
+        <v>0.000158</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.0446</v>
+        <v>288.1956522</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.0195</v>
+        <v>243.9934926</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>12346</v>
+        <v>332.39781</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>2.286</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>0.3508</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>134.4264214</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>90.2242618</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>178.62858</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>114.6539855</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>69.5956203</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>159.71235</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>50.6978022</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>8.6418732</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>92.75373</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0.0050219</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>33.3131868</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>-8.7427422</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>75.36912</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0.2791589</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>17.8869048</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>-25.0680312</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>60.84184</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0.9679948</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>51.0357143</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>9.7659467</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>92.30548</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0.0033906</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>275.9285714</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>233.8726424</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>317.9845</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>122.1593407</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>80.1034117</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>164.21527</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>102.3869048</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>59.4319688</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>145.34184</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>-17.3846154</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>-60.2122772</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>25.44305</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0.9735356</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>-32.8108974</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>-76.5216967</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>10.8999</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0.361284</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0.3379121</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>-41.7180169</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>42.39384</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>225.2307692</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>182.4031075</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>268.05843</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>71.4615385</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>28.6338767</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>114.2892</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>5.4E-006</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>51.6891026</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>7.9783033</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>95.3999</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0.0066611</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>-15.4262821</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>-59.1370813</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>28.28452</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0.9912643</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>17.7225275</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>-24.3334015</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>59.77846</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>0.9650711</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>242.6153846</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>199.7877228</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>285.44305</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>88.8461538</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>46.0184921</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>131.67382</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>69.0737179</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>25.3629187</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>112.78452</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>2.31E-005</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>33.1488095</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>-9.8061264</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>76.10375</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>0.3181233</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>258.0416667</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>214.3308674</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>301.75247</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>104.2724359</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>60.5616366</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>147.98324</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>39.9235563</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>129.07644</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>1E-007</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>224.8928571</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>182.8369282</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>266.94879</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>71.1236264</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>29.0676974</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>113.17956</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>3.7E-006</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>51.3511905</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>8.3962545</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>94.30613</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>0.0056849</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>-153.7692308</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>-196.5968925</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>-110.94157</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>-173.5416667</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>-217.2524659</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>-129.83087</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>-19.7724359</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>-63.4832352</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>23.93836</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>0.9423771</v>
       </c>
     </row>
   </sheetData>
